--- a/data/trans_orig/P79_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P79_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20C9C465-F6FF-4881-9208-328DED6B3845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9223FD4B-1CB9-4931-80B8-66AA7C3EA8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1FB04AFB-D573-494B-8C6D-FE8C563E96EC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9DD5464F-39C7-4217-ACF0-23D43AEC642A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,382 +74,382 @@
     <t>3,1%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
   </si>
   <si>
     <t>4,03%</t>
   </si>
   <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
     <t>1,92%</t>
   </si>
   <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
   </si>
   <si>
     <t>98,08%</t>
   </si>
   <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
   </si>
   <si>
     <t>98,42%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
   </si>
   <si>
     <t>98,27%</t>
   </si>
   <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -864,7 +864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40ADD028-DC60-4DB8-BB0D-8AA2D218F7E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBF9231-37BB-4BBE-8956-D887700B1678}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1459,7 +1459,7 @@
         <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -1468,13 +1468,13 @@
         <v>11577</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -1483,13 +1483,13 @@
         <v>26198</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1504,13 +1504,13 @@
         <v>707428</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>1115</v>
@@ -1519,13 +1519,13 @@
         <v>732121</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1762</v>
@@ -1534,13 +1534,13 @@
         <v>1439549</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1596,7 +1596,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1608,13 +1608,13 @@
         <v>6743</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -1623,13 +1623,13 @@
         <v>6054</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -1638,13 +1638,13 @@
         <v>12797</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,13 +1659,13 @@
         <v>592408</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>992</v>
@@ -1674,13 +1674,13 @@
         <v>590311</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1647</v>
@@ -1689,13 +1689,13 @@
         <v>1182719</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1751,7 +1751,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1763,13 +1763,13 @@
         <v>1869</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -1778,13 +1778,13 @@
         <v>4021</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -1793,13 +1793,13 @@
         <v>5890</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1811,16 +1811,16 @@
         <v>1025</v>
       </c>
       <c r="D20" s="7">
-        <v>695885</v>
+        <v>695886</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>1696</v>
@@ -1829,13 +1829,13 @@
         <v>1019673</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>2721</v>
@@ -1844,13 +1844,13 @@
         <v>1715558</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1862,7 +1862,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1918,13 +1918,13 @@
         <v>69933</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H22" s="7">
         <v>65</v>
@@ -1933,13 +1933,13 @@
         <v>54577</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M22" s="7">
         <v>126</v>
@@ -1948,13 +1948,13 @@
         <v>124510</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,13 +1969,13 @@
         <v>3312347</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="H23" s="7">
         <v>5285</v>
@@ -1984,25 +1984,25 @@
         <v>3745019</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>8597</v>
       </c>
       <c r="N23" s="7">
-        <v>7057366</v>
+        <v>7057367</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>137</v>
@@ -2047,7 +2047,7 @@
         <v>8723</v>
       </c>
       <c r="N24" s="7">
-        <v>7181876</v>
+        <v>7181877</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P79_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P79_R-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9223FD4B-1CB9-4931-80B8-66AA7C3EA8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B24A72C0-C875-4449-A66A-F3FA1D1497CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9DD5464F-39C7-4217-ACF0-23D43AEC642A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D8B534DB-D140-41E1-A3D9-72300F7FD777}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -864,7 +864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBF9231-37BB-4BBE-8956-D887700B1678}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD2935F-1E92-423F-AA72-E4925C3B03A9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P79_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P79_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B24A72C0-C875-4449-A66A-F3FA1D1497CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BED8EEC2-74E4-467F-A9B6-8118FD7F3958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D8B534DB-D140-41E1-A3D9-72300F7FD777}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BE8500E7-50C0-40AB-8E47-92DBFFF5E117}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>3,1%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
   </si>
   <si>
     <t>4,03%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
   </si>
   <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>96,9%</t>
   </si>
   <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
   </si>
   <si>
     <t>95,97%</t>
   </si>
   <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
   </si>
   <si>
     <t>96,45%</t>
   </si>
   <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,319 +137,319 @@
     <t>3,98%</t>
   </si>
   <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
     <t>2,07%</t>
   </si>
   <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
   </si>
   <si>
     <t>97,93%</t>
   </si>
   <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
+    <t>97,21%</t>
   </si>
   <si>
     <t>98,56%</t>
   </si>
   <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -864,7 +864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD2935F-1E92-423F-AA72-E4925C3B03A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2B6457-4FAA-4B5F-BA3C-E2F3871153DF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1459,7 +1459,7 @@
         <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -1468,13 +1468,13 @@
         <v>11577</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -1483,13 +1483,13 @@
         <v>26198</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1504,13 +1504,13 @@
         <v>707428</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>1115</v>
@@ -1519,13 +1519,13 @@
         <v>732121</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1762</v>
@@ -1534,13 +1534,13 @@
         <v>1439549</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1596,7 +1596,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1608,13 +1608,13 @@
         <v>6743</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -1623,13 +1623,13 @@
         <v>6054</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -1638,13 +1638,13 @@
         <v>12797</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,13 +1659,13 @@
         <v>592408</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>992</v>
@@ -1674,13 +1674,13 @@
         <v>590311</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1647</v>
@@ -1689,13 +1689,13 @@
         <v>1182719</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1751,7 +1751,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1763,13 +1763,13 @@
         <v>1869</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -1778,13 +1778,13 @@
         <v>4021</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -1793,13 +1793,13 @@
         <v>5890</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1811,16 +1811,16 @@
         <v>1025</v>
       </c>
       <c r="D20" s="7">
-        <v>695886</v>
+        <v>695885</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>1696</v>
@@ -1829,13 +1829,13 @@
         <v>1019673</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>2721</v>
@@ -1844,13 +1844,13 @@
         <v>1715558</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1862,7 +1862,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1918,13 +1918,13 @@
         <v>69933</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>65</v>
@@ -1933,13 +1933,13 @@
         <v>54577</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>126</v>
@@ -1948,13 +1948,13 @@
         <v>124510</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,13 +1969,13 @@
         <v>3312347</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="H23" s="7">
         <v>5285</v>
@@ -1984,25 +1984,25 @@
         <v>3745019</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>8597</v>
       </c>
       <c r="N23" s="7">
-        <v>7057367</v>
+        <v>7057366</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>137</v>
@@ -2047,7 +2047,7 @@
         <v>8723</v>
       </c>
       <c r="N24" s="7">
-        <v>7181877</v>
+        <v>7181876</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P79_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P79_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BED8EEC2-74E4-467F-A9B6-8118FD7F3958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07E93102-3AD7-4ADD-9586-3B485CCD9AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BE8500E7-50C0-40AB-8E47-92DBFFF5E117}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4C54313A-96D1-46B7-BDB4-C86DD742C3C7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="149">
   <si>
     <t>Población que sufre violencia física, emocional o sexual en 2023 (Tasa respuesta: 99,77%)</t>
   </si>
@@ -65,391 +65,421 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
   </si>
   <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
   </si>
   <si>
     <t>98,26%</t>
   </si>
   <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -864,8 +894,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2B6457-4FAA-4B5F-BA3C-E2F3871153DF}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E6FB44-1E21-40BE-BAF7-9C61655B3841}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -985,7 +1015,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>11711</v>
+        <v>11857</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1000,7 +1030,7 @@
         <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>14300</v>
+        <v>11987</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1015,67 +1045,67 @@
         <v>14</v>
       </c>
       <c r="N4" s="7">
-        <v>26011</v>
+        <v>23844</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>166</v>
       </c>
       <c r="D5" s="7">
-        <v>365968</v>
+        <v>388130</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>199</v>
       </c>
       <c r="I5" s="7">
-        <v>340657</v>
+        <v>301213</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>365</v>
       </c>
       <c r="N5" s="7">
-        <v>706625</v>
+        <v>689343</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1087,51 +1117,51 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1140,97 +1170,97 @@
         <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>17033</v>
+        <v>15477</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
       </c>
       <c r="I7" s="7">
-        <v>8669</v>
+        <v>8292</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>20</v>
       </c>
       <c r="N7" s="7">
-        <v>25701</v>
+        <v>23769</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>290</v>
       </c>
       <c r="D8" s="7">
-        <v>411363</v>
+        <v>408070</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>451</v>
       </c>
       <c r="I8" s="7">
-        <v>488738</v>
+        <v>502165</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>741</v>
       </c>
       <c r="N8" s="7">
-        <v>900102</v>
+        <v>910236</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1242,51 +1272,51 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>459</v>
       </c>
       <c r="I9" s="7">
-        <v>497407</v>
+        <v>510457</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>925803</v>
+        <v>934005</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1295,97 +1325,97 @@
         <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>17956</v>
+        <v>16864</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
       </c>
       <c r="I10" s="7">
-        <v>9957</v>
+        <v>9106</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
       </c>
       <c r="N10" s="7">
-        <v>27913</v>
+        <v>25970</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>529</v>
       </c>
       <c r="D11" s="7">
-        <v>539296</v>
+        <v>519474</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="H11" s="7">
         <v>832</v>
       </c>
       <c r="I11" s="7">
-        <v>573519</v>
+        <v>533362</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>1361</v>
       </c>
       <c r="N11" s="7">
-        <v>1112814</v>
+        <v>1052836</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1397,51 +1427,51 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>846</v>
       </c>
       <c r="I12" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1450,97 +1480,97 @@
         <v>16</v>
       </c>
       <c r="D13" s="7">
-        <v>14621</v>
+        <v>13489</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
       </c>
       <c r="I13" s="7">
-        <v>11577</v>
+        <v>10668</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
       </c>
       <c r="N13" s="7">
-        <v>26198</v>
+        <v>24157</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>647</v>
       </c>
       <c r="D14" s="7">
-        <v>707428</v>
+        <v>872615</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>1115</v>
       </c>
       <c r="I14" s="7">
-        <v>732121</v>
+        <v>698993</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>1762</v>
       </c>
       <c r="N14" s="7">
-        <v>1439549</v>
+        <v>1571608</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1552,51 +1582,51 @@
         <v>663</v>
       </c>
       <c r="D15" s="7">
-        <v>722049</v>
+        <v>886104</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>1134</v>
       </c>
       <c r="I15" s="7">
-        <v>743698</v>
+        <v>709661</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>1797</v>
       </c>
       <c r="N15" s="7">
-        <v>1465747</v>
+        <v>1595765</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1605,97 +1635,97 @@
         <v>7</v>
       </c>
       <c r="D16" s="7">
-        <v>6743</v>
+        <v>6039</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
       </c>
       <c r="I16" s="7">
-        <v>6054</v>
+        <v>5472</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
       </c>
       <c r="N16" s="7">
-        <v>12797</v>
+        <v>11511</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>655</v>
       </c>
       <c r="D17" s="7">
-        <v>592408</v>
+        <v>554264</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7">
         <v>992</v>
       </c>
       <c r="I17" s="7">
-        <v>590311</v>
+        <v>541802</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>1647</v>
       </c>
       <c r="N17" s="7">
-        <v>1182719</v>
+        <v>1096066</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1707,51 +1737,51 @@
         <v>662</v>
       </c>
       <c r="D18" s="7">
-        <v>599151</v>
+        <v>560303</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>1001</v>
       </c>
       <c r="I18" s="7">
-        <v>596365</v>
+        <v>547274</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>1663</v>
       </c>
       <c r="N18" s="7">
-        <v>1195516</v>
+        <v>1107577</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1760,97 +1790,97 @@
         <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>1869</v>
+        <v>1688</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="7">
+        <v>5</v>
+      </c>
+      <c r="I19" s="7">
+        <v>2502</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M19" s="7">
+        <v>8</v>
+      </c>
+      <c r="N19" s="7">
+        <v>4191</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H19" s="7">
-        <v>7</v>
-      </c>
-      <c r="I19" s="7">
-        <v>4021</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M19" s="7">
-        <v>10</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5890</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>1025</v>
+        <v>567</v>
       </c>
       <c r="D20" s="7">
-        <v>695885</v>
+        <v>366477</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" s="7">
+        <v>818</v>
+      </c>
+      <c r="I20" s="7">
+        <v>603792</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1385</v>
+      </c>
+      <c r="N20" s="7">
+        <v>970268</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1696</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1019673</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2721</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1715558</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1859,153 +1889,153 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
-        <v>1703</v>
+        <v>823</v>
       </c>
       <c r="I21" s="7">
-        <v>1023694</v>
+        <v>606294</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
-        <v>2731</v>
+        <v>1393</v>
       </c>
       <c r="N21" s="7">
-        <v>1721448</v>
+        <v>974459</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>69933</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H22" s="7">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>54577</v>
+        <v>1120</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="M22" s="7">
-        <v>126</v>
+        <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>124510</v>
+        <v>1120</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>3312</v>
+        <v>458</v>
       </c>
       <c r="D23" s="7">
-        <v>3312347</v>
+        <v>282759</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="H23" s="7">
-        <v>5285</v>
+        <v>878</v>
       </c>
       <c r="I23" s="7">
-        <v>3745019</v>
+        <v>424145</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="M23" s="7">
-        <v>8597</v>
+        <v>1336</v>
       </c>
       <c r="N23" s="7">
-        <v>7057366</v>
+        <v>706904</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,63 +2044,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="7">
+        <v>880</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425265</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1338</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708024</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>61</v>
+      </c>
+      <c r="D25" s="7">
+        <v>65414</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H25" s="7">
+        <v>65</v>
+      </c>
+      <c r="I25" s="7">
+        <v>49148</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M25" s="7">
+        <v>126</v>
+      </c>
+      <c r="N25" s="7">
+        <v>114562</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3312</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3391790</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5285</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3605471</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8597</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6997261</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3373</v>
       </c>
-      <c r="D24" s="7">
-        <v>3382280</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3457204</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7">
         <v>5350</v>
       </c>
-      <c r="I24" s="7">
-        <v>3799596</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3654619</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="7">
         <v>8723</v>
       </c>
-      <c r="N24" s="7">
-        <v>7181876</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>138</v>
+      <c r="N27" s="7">
+        <v>7111823</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
